--- a/hardware/Main Enclosure/BOM/Main Enclosure BOM.xlsx
+++ b/hardware/Main Enclosure/BOM/Main Enclosure BOM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mario\Desktop\Uni\5th year\Semester 2\Project\GitHub Folder\WeirWeather-AWS\hardware\Main Enclosure\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FF0D91A-11BE-41D8-ACC3-D33904F2BF86}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1912262B-46C4-411E-9250-6C97CA1D9222}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1515" yWindow="1515" windowWidth="19065" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="19065" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BillOfMaterials" sheetId="2" r:id="rId1"/>
@@ -3726,8 +3726,8 @@
   </sheetPr>
   <dimension ref="A1:K49"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="E40" sqref="E40"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
@@ -3854,7 +3854,7 @@
       </c>
       <c r="C8" s="60">
         <f>Table1[[#Totals],[Cost]]</f>
-        <v>228.44199999999998</v>
+        <v>230.04199999999997</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
@@ -4634,11 +4634,11 @@
       </c>
       <c r="G35" s="62"/>
       <c r="H35" s="63">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="I35" s="55">
         <f>Table1[[#This Row],[Qty]]*Table1[[#This Row],[Unit Cost]]</f>
-        <v>4.8000000000000007</v>
+        <v>6.4</v>
       </c>
       <c r="K35" s="2"/>
     </row>
@@ -4688,7 +4688,7 @@
       <c r="H37" s="18"/>
       <c r="I37" s="56">
         <f>SUBTOTAL(109,Table1[Cost])</f>
-        <v>228.44199999999998</v>
+        <v>230.04199999999997</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.3">
